--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,32 +427,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ontology ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>PURL</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ROOT_ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>IDs</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Intermediates</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Prefix</t>
         </is>
@@ -479,6 +484,11 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>"ADDICTO: http://addictovocab.org/ADDICTO_"</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,7 +498,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO</t>
+          <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +508,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>intervention setting [BCIO:014000]; study recruitment setting [BCIO:014000]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; criminal justice facility [BCIO:026038]; educational facility [BCIO:026022]; factory facility [BCIO:026039]; care home facility [BCIO:026017]; community healthcare facility [BCIO:026019]; community outpatient clinic facility [BCIO:026020]; dentist facility [BCIO:026021]; doctor-led primary care facility [BCIO:026016]; psychiatric facility [BCIO:026051]; military facility [BCIO:026040]; office facility [BCIO:026037]; retail facility [BCIO:026036]; outdoor environment [BCIO:026046]; path or pavement [BCIO:026048]; water [BCIO:026047]; transportation [BCIO:026041]; ambulance [BCIO:026045]; mobile intervention venue [BCIO:026044]; private transportation [BCIO:026043]; public transportation [BCIO:026042]; human age [BCIO:015015]; mean human age [BCIO:015177]; biological sex [BCIO:015105]; female biological sex [BCIO:015106]; male biological sex [BCIO:015107]; medication use status [BCIO:015490]; intervention effect estimate [BCIO:017000]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; BCI schedule of delivery [BCIO:008500]; regular intervention schedule [BCIO:008535]; irregular intervention schedule [BCIO:008540]; behaviour change intervention mode of delivery [BCIO:011000]; somatic mode of delivery [BCIO:011034]; ingestion mode of delivery [BCIO:011035]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; inhalation mode of delivery [BCIO:011041]; injection mode of delivery [BCIO:011042]; transdermal mode of delivery [BCIO:011036]; wearable ingestion mode of delivery [BCIO:011046]</t>
+          <t>injection mode of delivery [BCIO:011042]; military facility [BCIO:026040]; BCI attribute [BCIO:050315]; country of intervention [BCIO:026001]; office facility [BCIO:026037]; study recruitment setting [BCIO:014000]; intervention effect estimate [BCIO:017000]; belief about quality of life [BCIO:050324]; ambulance [BCIO:026045]; community facility [BCIO:026029]; community healthcare facility [BCIO:026019]; evaluation finding [BCIO:035000]; outdoor environment [BCIO:026046]; care home facility [BCIO:026017]; psychiatric facility [BCIO:026051]; ingestion mode of delivery [BCIO:011035]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; regular intervention schedule [BCIO:008535]; public transportation [BCIO:026042]; behaviour change intervention source [BCIO:010000]; BCI schedule of delivery [BCIO:008500]; intervention setting [BCIO:014000]; transportation [BCIO:026041]; inhalation mode of delivery [BCIO:011041]; biological sex [BCIO:015105]; buccal mode of delivery [BCIO:011040]; path or pavement [BCIO:026048]; human age [BCIO:015015]; educational facility [BCIO:026022]; wearable ingestion mode of delivery [BCIO:011046]; factory facility [BCIO:026039]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; medication use status [BCIO:015490]; water [BCIO:026047]; mobile intervention venue [BCIO:026044]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; alimentary mode of delivery [BCIO:011037]; experience-related behaviour [BCIO:050443]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; dentist facility [BCIO:026021]; mean human age [BCIO:015177]; criminal justice facility [BCIO:026038]; male biological sex [BCIO:015107]; doctor-led primary care facility [BCIO:026016]; retail facility [BCIO:026036]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>all</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
         </is>
       </c>
     </row>
@@ -525,7 +540,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ractopamine [CHEBI:82644]; ulotaront [CHEBI:228346]; high-density lipoprotein cholesterol [CHEBI:47775]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]</t>
+          <t>ulotaront [CHEBI:228346]; ractopamine [CHEBI:82644]; high-density lipoprotein cholesterol [CHEBI:47775]; tranquilizing drug [CHEBI:35473]; psychotropic drug [CHEBI:35471]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]; lipoprotein cholesterol [CHEBI:50404]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -533,6 +548,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,7 +568,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>QTC interval [CMO:0000269]</t>
+          <t>heart electrical conduction measurement [CMO:0000230]; QTC interval [CMO:0000269]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -560,6 +576,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -579,12 +596,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>high density lipoprotein cholesterol measurement [EFO:0004612]; low density lipoprotein cholesterol measurement [EFO:0004611]; total cholesterol measurement [EFO:0004574]; triglyceride measurement [EFO:0004530]; glucose measurement [EFO:0004468]; HbA1c measurement [EFO:0004541]; prolactin measurement [EFO:0007003]</t>
+          <t>total cholesterol measurement [EFO:0004574]; lipid measurement [EFO:0004529]; glucose measurement [EFO:0004468]; low density lipoprotein cholesterol measurement [EFO:0004611]; high density lipoprotein cholesterol measurement [EFO:0004612]; diabetes mellitus biomarker [EFO:0006842]; hormone measurement [EFO:0004730]; HbA1c measurement [EFO:0004541]; triglyceride measurement [EFO:0004530]; prolactin measurement [EFO:0007003]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>all</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>"EFO: http://www.ebi.ac.uk/efo/EFO_"</t>
         </is>
       </c>
     </row>
@@ -596,7 +618,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO</t>
+          <t>http://purl.obolibrary.org/obo/envo.owl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -614,6 +636,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -623,7 +646,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO</t>
+          <t>http://purl.obolibrary.org/obo/iao.owl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -633,7 +656,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement data item [IAO:0000109]</t>
+          <t>information content entity [IAO:0000030]; plan specification [IAO:0000104]; measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; data item [IAO:0000027]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -641,6 +664,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -650,7 +674,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MF</t>
+          <t>http://purl.obolibrary.org/obo/mf.owl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -660,7 +684,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>belief [MF:0000041]; mental functioning related anatomical structure [MF:0000000]</t>
+          <t>mental functioning related anatomical structure [MF:0000000]; belief [MF:0000041]; bodily disposition [MF:0000032]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -668,6 +692,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -677,7 +702,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBCS</t>
+          <t>http://purl.obolibrary.org/obo/obcs.owl</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -695,6 +720,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,7 +730,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI</t>
+          <t>http://purl.obolibrary.org/obo/obi.owl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -714,7 +740,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mean calculation [OBI:0200079]; inclusion criterion [OBI:0500027]; exclusion criterion [OBI:0500028]</t>
+          <t>inclusion criterion [OBI:0500027]; eligibility criterion [OBI:0500026]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -722,6 +748,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -731,7 +758,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OGMS</t>
+          <t>http://purl.obolibrary.org/obo/ogms.owl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -749,6 +776,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -776,6 +804,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -785,7 +814,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OMRSE</t>
+          <t>http://purl.obolibrary.org/obo/omrse.owl</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -795,7 +824,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102]; hospice facility [OMRSE:00000104]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; residential facility [OMRSE:00000191]</t>
+          <t>rehabilitation facility [OMRSE:00000106]; architectural structure [OMRSE:00000061]; hospice facility [OMRSE:00000104]; healthcare facility [OMRSE:00000102]; residential facility [OMRSE:00000191]; facility [OMRSE:00000062]; hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -803,6 +832,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -822,7 +852,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>study status [OPMI:0000327]</t>
+          <t>status [OPMI:0000326]; study status [OPMI:0000327]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -830,6 +860,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -857,6 +888,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -884,6 +916,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -893,7 +926,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/STATO</t>
+          <t>http://purl.obolibrary.org/obo/STATO.owl</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -911,6 +944,119 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GAZ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/gaz.owl</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>geographic location [GAZ:00000448]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BFO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>material entity [BFO:0000040]; temporal region [BFO:0000008]; site [BFO:0000029]; generically dependent continuant [BFO:0000031]; process [BFO:0000015]; fiat object part [BFO:0000024]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COB</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/cob.owl</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>planned process [COB:0000082]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SEPIO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/sepio.owl</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>research study [SEPIO:0000125]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -548,7 +548,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,7 +575,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -636,7 +634,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -664,7 +661,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -692,7 +688,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -720,7 +715,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -748,7 +742,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -776,7 +769,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -804,7 +796,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -832,7 +823,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -860,7 +850,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -888,7 +877,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -916,7 +904,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -944,7 +931,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -972,7 +958,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -992,7 +977,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>material entity [BFO:0000040]; temporal region [BFO:0000008]; site [BFO:0000029]; generically dependent continuant [BFO:0000031]; process [BFO:0000015]; fiat object part [BFO:0000024]</t>
+          <t>temporal region [BFO:0000008]; generically dependent continuant [BFO:0000031]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1000,7 +985,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1028,7 +1012,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1056,7 +1039,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>injection mode of delivery [BCIO:011042]; military facility [BCIO:026040]; BCI attribute [BCIO:050315]; country of intervention [BCIO:026001]; office facility [BCIO:026037]; study recruitment setting [BCIO:014000]; intervention effect estimate [BCIO:017000]; belief about quality of life [BCIO:050324]; ambulance [BCIO:026045]; community facility [BCIO:026029]; community healthcare facility [BCIO:026019]; evaluation finding [BCIO:035000]; outdoor environment [BCIO:026046]; care home facility [BCIO:026017]; psychiatric facility [BCIO:026051]; ingestion mode of delivery [BCIO:011035]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; regular intervention schedule [BCIO:008535]; public transportation [BCIO:026042]; behaviour change intervention source [BCIO:010000]; BCI schedule of delivery [BCIO:008500]; intervention setting [BCIO:014000]; transportation [BCIO:026041]; inhalation mode of delivery [BCIO:011041]; biological sex [BCIO:015105]; buccal mode of delivery [BCIO:011040]; path or pavement [BCIO:026048]; human age [BCIO:015015]; educational facility [BCIO:026022]; wearable ingestion mode of delivery [BCIO:011046]; factory facility [BCIO:026039]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; medication use status [BCIO:015490]; water [BCIO:026047]; mobile intervention venue [BCIO:026044]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; alimentary mode of delivery [BCIO:011037]; experience-related behaviour [BCIO:050443]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; dentist facility [BCIO:026021]; mean human age [BCIO:015177]; criminal justice facility [BCIO:026038]; male biological sex [BCIO:015107]; doctor-led primary care facility [BCIO:026016]; retail facility [BCIO:026036]</t>
+          <t>community healthcare facility [BCIO:026019]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; wearable ingestion mode of delivery [BCIO:011046]; transportation [BCIO:026041]; BCI attribute [BCIO:050315]; inhalation mode of delivery [BCIO:011041]; regular intervention schedule [BCIO:008535]; office facility [BCIO:026037]; country of intervention [BCIO:026001]; transdermal mode of delivery [BCIO:011036]; intervention setting [BCIO:014000]; water [BCIO:026047]; human age [BCIO:015015]; criminal justice facility [BCIO:026038]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; mean human age [BCIO:015177]; psychiatric facility [BCIO:026051]; biological sex [BCIO:015105]; military facility [BCIO:026040]; intervention effect estimate [BCIO:017000]; mobile intervention venue [BCIO:026044]; care home facility [BCIO:026017]; behaviour change intervention source [BCIO:010000]; doctor-led primary care facility [BCIO:026016]; male biological sex [BCIO:015107]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; factory facility [BCIO:026039]; individual human behaviour [BCIO:036000]; evaluation finding [BCIO:035000]; path or pavement [BCIO:026048]; ingestion mode of delivery [BCIO:011035]; medication use status [BCIO:015490]; educational facility [BCIO:026022]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; study recruitment setting [BCIO:014000]; retail facility [BCIO:026036]; dentist facility [BCIO:026021]; public transportation [BCIO:026042]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; buccal mode of delivery [BCIO:011040]; community facility [BCIO:026029]; somatic mode of delivery [BCIO:011034]; BCI schedule of delivery [BCIO:008500]; experience-related behaviour [BCIO:050443]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>community healthcare facility [BCIO:026019]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; wearable ingestion mode of delivery [BCIO:011046]; transportation [BCIO:026041]; BCI attribute [BCIO:050315]; inhalation mode of delivery [BCIO:011041]; regular intervention schedule [BCIO:008535]; office facility [BCIO:026037]; country of intervention [BCIO:026001]; transdermal mode of delivery [BCIO:011036]; intervention setting [BCIO:014000]; water [BCIO:026047]; human age [BCIO:015015]; criminal justice facility [BCIO:026038]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; mean human age [BCIO:015177]; psychiatric facility [BCIO:026051]; biological sex [BCIO:015105]; military facility [BCIO:026040]; intervention effect estimate [BCIO:017000]; mobile intervention venue [BCIO:026044]; care home facility [BCIO:026017]; behaviour change intervention source [BCIO:010000]; doctor-led primary care facility [BCIO:026016]; male biological sex [BCIO:015107]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; factory facility [BCIO:026039]; individual human behaviour [BCIO:036000]; evaluation finding [BCIO:035000]; path or pavement [BCIO:026048]; ingestion mode of delivery [BCIO:011035]; medication use status [BCIO:015490]; educational facility [BCIO:026022]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; study recruitment setting [BCIO:014000]; retail facility [BCIO:026036]; dentist facility [BCIO:026021]; public transportation [BCIO:026042]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; buccal mode of delivery [BCIO:011040]; community facility [BCIO:026029]; somatic mode of delivery [BCIO:011034]; BCI schedule of delivery [BCIO:008500]; experience-related behaviour [BCIO:050443]</t>
+          <t>community healthcare facility [BCIO:026019]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; wearable ingestion mode of delivery [BCIO:011046]; transportation [BCIO:026041]; inhalation mode of delivery [BCIO:011041]; BCI attribute [BCIO:050315]; regular intervention schedule [BCIO:008535]; office facility [BCIO:026037]; country of intervention [BCIO:026001]; transdermal mode of delivery [BCIO:011036]; intervention setting [BCIO:014000]; water [BCIO:026047]; human age [BCIO:015015]; criminal justice facility [BCIO:026038]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; mean human age [BCIO:015177]; psychiatric facility [BCIO:026051]; biological sex [BCIO:015105]; military facility [BCIO:026040]; intervention effect estimate [BCIO:017000]; mobile intervention venue [BCIO:026044]; care home facility [BCIO:026017]; behaviour change intervention source [BCIO:010000]; doctor-led primary care facility [BCIO:026016]; male biological sex [BCIO:015107]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; factory facility [BCIO:026039]; individual human behaviour [BCIO:036000]; evaluation finding [BCIO:035000]; path or pavement [BCIO:026048]; ingestion mode of delivery [BCIO:011035]; medication use status [BCIO:015490]; educational facility [BCIO:026022]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; study recruitment setting [BCIO:014000]; retail facility [BCIO:026036]; dentist facility [BCIO:026021]; public transportation [BCIO:026042]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; buccal mode of delivery [BCIO:011040]; community facility [BCIO:026029]; somatic mode of delivery [BCIO:011034]; personal attribute [BCIO:050300]; BCI schedule of delivery [BCIO:008500]; experience-related behaviour [BCIO:050443]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -761,7 +761,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>diagnosis [OGMS:0000073]; psychotic disorder symptom [OGMS:0000020]</t>
+          <t>health care process [OGMS:0000096]; psychotic disorder symptom [OGMS:0000020]; diagnosis [OGMS:0000073]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -761,7 +761,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>health care process [OGMS:0000096]; psychotic disorder symptom [OGMS:0000020]; diagnosis [OGMS:0000073]</t>
+          <t>health care process [OGMS:0000096]; bodily process [OGMS:0000060]; psychotic disorder symptom [OGMS:0000020]; diagnosis [OGMS:0000073]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>community healthcare facility [BCIO:026019]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; wearable ingestion mode of delivery [BCIO:011046]; transportation [BCIO:026041]; inhalation mode of delivery [BCIO:011041]; BCI attribute [BCIO:050315]; regular intervention schedule [BCIO:008535]; office facility [BCIO:026037]; country of intervention [BCIO:026001]; transdermal mode of delivery [BCIO:011036]; intervention setting [BCIO:014000]; water [BCIO:026047]; human age [BCIO:015015]; criminal justice facility [BCIO:026038]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; mean human age [BCIO:015177]; psychiatric facility [BCIO:026051]; biological sex [BCIO:015105]; military facility [BCIO:026040]; intervention effect estimate [BCIO:017000]; mobile intervention venue [BCIO:026044]; care home facility [BCIO:026017]; behaviour change intervention source [BCIO:010000]; doctor-led primary care facility [BCIO:026016]; male biological sex [BCIO:015107]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; factory facility [BCIO:026039]; individual human behaviour [BCIO:036000]; evaluation finding [BCIO:035000]; path or pavement [BCIO:026048]; ingestion mode of delivery [BCIO:011035]; medication use status [BCIO:015490]; educational facility [BCIO:026022]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; study recruitment setting [BCIO:014000]; retail facility [BCIO:026036]; dentist facility [BCIO:026021]; public transportation [BCIO:026042]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; buccal mode of delivery [BCIO:011040]; community facility [BCIO:026029]; somatic mode of delivery [BCIO:011034]; personal attribute [BCIO:050300]; BCI schedule of delivery [BCIO:008500]; experience-related behaviour [BCIO:050443]</t>
+          <t>community healthcare facility [BCIO:026019]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; wearable ingestion mode of delivery [BCIO:011046]; transportation [BCIO:026041]; BCI attribute [BCIO:050315]; inhalation mode of delivery [BCIO:011041]; regular intervention schedule [BCIO:008535]; office facility [BCIO:026037]; country of intervention [BCIO:026001]; transdermal mode of delivery [BCIO:011036]; intervention setting [BCIO:014000]; water [BCIO:026047]; human age [BCIO:015015]; criminal justice facility [BCIO:026038]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; mean human age [BCIO:015177]; psychiatric facility [BCIO:026051]; biological sex [BCIO:015105]; military facility [BCIO:026040]; intervention effect estimate [BCIO:017000]; mobile intervention venue [BCIO:026044]; care home facility [BCIO:026017]; behaviour change intervention source [BCIO:010000]; doctor-led primary care facility [BCIO:026016]; male biological sex [BCIO:015107]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; factory facility [BCIO:026039]; individual human behaviour [BCIO:036000]; evaluation finding [BCIO:035000]; path or pavement [BCIO:026048]; ingestion mode of delivery [BCIO:011035]; medication use status [BCIO:015490]; educational facility [BCIO:026022]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; study recruitment setting [BCIO:014000]; retail facility [BCIO:026036]; dentist facility [BCIO:026021]; public transportation [BCIO:026042]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; buccal mode of delivery [BCIO:011040]; community facility [BCIO:026029]; somatic mode of delivery [BCIO:011034]; personal attribute [BCIO:050300]; BCI schedule of delivery [BCIO:008500]; associative learning [BCIO:006119]; experience-related behaviour [BCIO:050443]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>mental functioning related anatomical structure [MF:0000000]; belief [MF:0000041]; bodily disposition [MF:0000032]</t>
+          <t>mental functioning related anatomical structure [MF:0000000]; bodily disposition [MF:0000032]; mental process [MF:0000020]; belief [MF:0000041]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,28 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PATO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>force [PATO:0001035]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>teenager [ADDICTO:0001050]; adult [ADDICTO:0000352]; interventional study design [ADDICTO:0001267]; randomised controlled trial design [ADDICTO:0001263]; repeated measure design  [ADDICTO:0001262 ]; mixed study design [ADDICTO:0001265]; cross over design [ADDICTO:0001255 ]; n-of-1 study design [ADDICTO:0001292]; sequential multiple randomised controlled trial design [ADDICTO:0001271 ]; non-interventional study design [ADDICTO:0001258]; case-control study design [ADDICTO:0001257]; quasi-randomised controlled trial design [ADDICTO:0001278 ]; cluster randomised controlled trial design [ADDICTO:0001277]; single-arm intervention design [ADDICTO:0001279]; wash-out period [ADDICTO:0001297 ]</t>
+          <t>teenager [ADDICTO:0001050]; adult [ADDICTO:0000352]; interventional study design [ADDICTO:0001267]; randomised controlled trial design [ADDICTO:0001263]; repeated measure design  [ADDICTO:0001262 ]; mixed study design [ADDICTO:0001265]; cross over design [ADDICTO:0001255 ]; n-of-1 study design [ADDICTO:0001292]; sequential multiple randomised controlled trial design [ADDICTO:0001271 ]; non-interventional study design [ADDICTO:0001258]; case-control study design [ADDICTO:0001257]; quasi-randomised controlled trial design [ADDICTO:0001278 ]; cluster randomised controlled trial design [ADDICTO:0001277]; single-arm intervention design [ADDICTO:0001279]; wash-out period [ADDICTO:0001297]; repeated measures study design [ADDICTO:0001262]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -548,6 +548,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -575,6 +576,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +636,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -661,6 +664,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -688,6 +692,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -715,6 +720,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,6 +748,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -769,6 +776,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,6 +804,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -823,6 +832,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -850,6 +860,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -877,6 +888,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -904,6 +916,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -931,6 +944,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -958,6 +972,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -985,6 +1000,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1012,6 +1028,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1039,6 +1056,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1046,6 +1064,7 @@
           <t>PATO</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1061,6 +1080,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -548,7 +548,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,7 +575,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -636,7 +634,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -656,7 +653,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>information content entity [IAO:0000030]; plan specification [IAO:0000104]; measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; data item [IAO:0000027]</t>
+          <t>measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; plan specification [IAO:0000104]; citation [IAO:0000301]; information content entity [IAO:0000030]; data item [IAO:0000027]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -664,7 +661,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -692,7 +688,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -720,7 +715,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -748,7 +742,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -776,7 +769,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -804,7 +796,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -832,7 +823,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -860,7 +850,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -888,7 +877,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -916,7 +904,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -944,7 +931,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -972,7 +958,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1000,7 +985,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1028,7 +1012,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1056,7 +1039,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1064,7 +1046,6 @@
           <t>PATO</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1080,7 +1061,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>mental functioning related anatomical structure [MF:0000000]; bodily disposition [MF:0000032]; mental process [MF:0000020]; belief [MF:0000041]</t>
+          <t>bodily quality [MF:0000074]; mental functioning related anatomical structure [MF:0000000]; bodily disposition [MF:0000032]; mental process [MF:0000020]; belief [MF:0000041]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -761,7 +761,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>health care process [OGMS:0000096]; bodily process [OGMS:0000060]; psychotic disorder symptom [OGMS:0000020]; diagnosis [OGMS:0000073]</t>
+          <t>health care process [OGMS:0000096]; bodily process [OGMS:0000060]; psychotic disorder symptom [OGMS:0000020]; diagnosis [OGMS:0000073]; clinical history [OGMS:0000015]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>teenager [ADDICTO:0001050]; adult [ADDICTO:0000352]; interventional study design [ADDICTO:0001267]; randomised controlled trial design [ADDICTO:0001263]; repeated measure design  [ADDICTO:0001262 ]; mixed study design [ADDICTO:0001265]; cross over design [ADDICTO:0001255 ]; n-of-1 study design [ADDICTO:0001292]; sequential multiple randomised controlled trial design [ADDICTO:0001271 ]; non-interventional study design [ADDICTO:0001258]; case-control study design [ADDICTO:0001257]; quasi-randomised controlled trial design [ADDICTO:0001278 ]; cluster randomised controlled trial design [ADDICTO:0001277]; single-arm intervention design [ADDICTO:0001279]; wash-out period [ADDICTO:0001297]; repeated measures study design [ADDICTO:0001262]</t>
+          <t>interventional study design [ADDICTO:0001267]; sequential multiple randomised controlled trial design [ADDICTO:0001271 ]; case-control study design [ADDICTO:0001257]; quasi-randomised controlled trial design [ADDICTO:0001278 ]; cluster randomised controlled trial design [ADDICTO:0001277]; repeated measure design  [ADDICTO:0001262 ]; cross over design [ADDICTO:0001255 ]; n-of-1 study design [ADDICTO:0001292]; randomised controlled trial design [ADDICTO:0001263]; mixed study design [ADDICTO:0001265]; teenager [ADDICTO:0001050]; single-arm intervention design [ADDICTO:0001279]; wash-out period [ADDICTO:0001297]; adult [ADDICTO:0000352]; repeated measures study design [ADDICTO:0001262]; non-interventional study design [ADDICTO:0001258]; self-identity [ADDICTO:0000399]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -923,7 +923,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>maximum value [STATO:0000151]; minimum value [STATO:0000150]</t>
+          <t>minimum value [STATO:0000150]; maximum value [STATO:0000151]; prevalence [STATO:0000412]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -896,7 +896,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>trace amine receptor [PR:000001558]; trace amine-associated receptor 1 [PR:000001711]</t>
+          <t>rhodopsin-like G-protein coupled receptor [PR:000001094]; trace amine-associated receptor 1 [PR:000001711]; trace amine receptor [PR:000001558]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -896,7 +896,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rhodopsin-like G-protein coupled receptor [PR:000001094]; trace amine-associated receptor 1 [PR:000001711]; trace amine receptor [PR:000001558]</t>
+          <t>trace amine receptor [PR:000001558]; trace amine-associated receptor 1 [PR:000001711]; rhodopsin-like G-protein coupled receptor [PR:000001094]; trace amine-associated receptor 1-4 [PR:000001678]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ulotaront [CHEBI:228346]; ractopamine [CHEBI:82644]; high-density lipoprotein cholesterol [CHEBI:47775]; tranquilizing drug [CHEBI:35473]; psychotropic drug [CHEBI:35471]; low-density lipoprotein cholesterol [CHEBI:47774]; very-low-density lipoprotein cholesterol [CHEBI:47773]; lipoprotein cholesterol [CHEBI:50404]</t>
+          <t>ulotaront [CHEBI:228346]; psychotropic drug [CHEBI:35471]; tranquilizing drug [CHEBI:35473]; lipoprotein cholesterol [CHEBI:50404]; very-low-density lipoprotein cholesterol [CHEBI:47773]; ractopamine [CHEBI:82644]; low-density lipoprotein cholesterol [CHEBI:47774]; high-density lipoprotein cholesterol [CHEBI:47775]; diastereoisomeric mixture [CHEBI:60915]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ulotaront [CHEBI:228346]; psychotropic drug [CHEBI:35471]; tranquilizing drug [CHEBI:35473]; lipoprotein cholesterol [CHEBI:50404]; very-low-density lipoprotein cholesterol [CHEBI:47773]; ractopamine [CHEBI:82644]; low-density lipoprotein cholesterol [CHEBI:47774]; high-density lipoprotein cholesterol [CHEBI:47775]; diastereoisomeric mixture [CHEBI:60915]</t>
+          <t>ulotaront [CHEBI:228346]; psychotropic drug [CHEBI:35471]; tranquilizing drug [CHEBI:35473]; lipoprotein cholesterol [CHEBI:50404]; very-low-density lipoprotein cholesterol [CHEBI:47773]; ractopamine [CHEBI:82644]; low-density lipoprotein cholesterol [CHEBI:47774]; high-density lipoprotein cholesterol [CHEBI:47775]; diastereoisomeric mixture [CHEBI:60915]; thienopyran [CHEBI:48910]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -548,6 +548,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -575,6 +576,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +636,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -661,6 +664,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -688,6 +692,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -715,6 +720,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,6 +748,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -769,6 +776,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,6 +804,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -823,6 +832,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -850,6 +860,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -877,6 +888,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -904,6 +916,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -931,6 +944,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -958,6 +972,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -985,6 +1000,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1012,6 +1028,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1039,6 +1056,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1046,6 +1064,7 @@
           <t>PATO</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1061,6 +1080,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -548,7 +548,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,7 +575,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -636,7 +634,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -664,7 +661,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -692,7 +688,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -720,7 +715,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -748,7 +742,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -776,7 +769,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -804,7 +796,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -832,7 +823,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -860,7 +850,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -888,7 +877,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -916,7 +904,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -944,7 +931,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -972,7 +958,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -992,7 +977,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>temporal region [BFO:0000008]; generically dependent continuant [BFO:0000031]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]</t>
+          <t>generically dependent continuant [BFO:0000031]; temporal region [BFO:0000008]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]; specifically dependent continuant [BFO:0000020]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1000,7 +985,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1028,7 +1012,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1056,7 +1039,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1064,7 +1046,6 @@
           <t>PATO</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1080,7 +1061,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -548,6 +548,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -575,6 +576,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +636,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -661,6 +664,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -680,7 +684,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bodily quality [MF:0000074]; mental functioning related anatomical structure [MF:0000000]; bodily disposition [MF:0000032]; mental process [MF:0000020]; belief [MF:0000041]</t>
+          <t>bodily quality [MF:0000074]; mental functioning related anatomical structure [MF:0000000]; bodily disposition [MF:0000032]; mental process [MF:0000020]; belief [MF:0000041]; human being [MF:0000016]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -688,6 +692,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -715,6 +720,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,6 +748,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -769,6 +776,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,6 +804,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -823,6 +832,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -850,6 +860,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -877,6 +888,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -904,6 +916,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -931,6 +944,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -958,6 +972,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -985,6 +1000,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1012,6 +1028,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1039,6 +1056,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1046,6 +1064,7 @@
           <t>PATO</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1061,6 +1080,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -548,7 +548,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,7 +575,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -636,7 +634,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -664,7 +661,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -692,7 +688,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -720,7 +715,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -748,7 +742,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -768,7 +761,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>health care process [OGMS:0000096]; bodily process [OGMS:0000060]; psychotic disorder symptom [OGMS:0000020]; diagnosis [OGMS:0000073]; clinical history [OGMS:0000015]</t>
+          <t>health care process [OGMS:0000096]; bodily process [OGMS:0000060]; extended organism [OGMS:0000087]; psychotic disorder symptom [OGMS:0000020]; diagnosis [OGMS:0000073]; clinical history [OGMS:0000015]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -776,7 +769,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -804,7 +796,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -832,7 +823,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -860,7 +850,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -888,7 +877,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -916,7 +904,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -944,7 +931,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -972,7 +958,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1000,7 +985,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1028,7 +1012,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1056,7 +1039,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1064,7 +1046,6 @@
           <t>PATO</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1080,7 +1061,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>central nervous system drug [CHEBI:35470]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,6 +548,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>clinical measurement [CMO:0000000]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -575,6 +576,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +636,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,7 +651,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>information content entity [IAO:0000030]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -661,6 +664,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -688,6 +692,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -715,6 +720,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,6 +748,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -769,6 +776,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,6 +804,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -823,6 +832,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -850,6 +860,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -877,6 +888,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -904,6 +916,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -931,6 +944,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -958,6 +972,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -985,6 +1000,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1012,6 +1028,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1039,6 +1056,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1046,6 +1064,7 @@
           <t>PATO</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
@@ -1061,6 +1080,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -1064,7 +1064,11 @@
           <t>PATO</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/pato.owl</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>community healthcare facility [BCIO:026019]; alimentary mode of delivery [BCIO:011037]; ambulance [BCIO:026045]; wearable ingestion mode of delivery [BCIO:011046]; transportation [BCIO:026041]; BCI attribute [BCIO:050315]; inhalation mode of delivery [BCIO:011041]; regular intervention schedule [BCIO:008535]; office facility [BCIO:026037]; country of intervention [BCIO:026001]; transdermal mode of delivery [BCIO:011036]; intervention setting [BCIO:014000]; water [BCIO:026047]; human age [BCIO:015015]; criminal justice facility [BCIO:026038]; irregular intervention schedule [BCIO:008540]; intervention evaluation finding [BCIO:023000]; belief about quality of life [BCIO:050324]; mean human age [BCIO:015177]; psychiatric facility [BCIO:026051]; biological sex [BCIO:015105]; military facility [BCIO:026040]; intervention effect estimate [BCIO:017000]; mobile intervention venue [BCIO:026044]; care home facility [BCIO:026017]; behaviour change intervention source [BCIO:010000]; doctor-led primary care facility [BCIO:026016]; male biological sex [BCIO:015107]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; factory facility [BCIO:026039]; individual human behaviour [BCIO:036000]; evaluation finding [BCIO:035000]; path or pavement [BCIO:026048]; ingestion mode of delivery [BCIO:011035]; medication use status [BCIO:015490]; educational facility [BCIO:026022]; private transportation [BCIO:026043]; female biological sex [BCIO:015106]; study recruitment setting [BCIO:014000]; retail facility [BCIO:026036]; dentist facility [BCIO:026021]; public transportation [BCIO:026042]; community outpatient clinic facility [BCIO:026020]; behaviour change intervention mode of delivery [BCIO:011000]; buccal mode of delivery [BCIO:011040]; community facility [BCIO:026029]; somatic mode of delivery [BCIO:011034]; personal attribute [BCIO:050300]; BCI schedule of delivery [BCIO:008500]; associative learning [BCIO:006119]; experience-related behaviour [BCIO:050443]</t>
+          <t>intervention setting [BCIO:014000]; factory facility [BCIO:026039]; mobile intervention venue [BCIO:026044]; belief about quality of life [BCIO:050324]; associative learning [BCIO:006119]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; personal attribute [BCIO:050300]; private transportation [BCIO:026043]; water [BCIO:026047]; irregular intervention schedule [BCIO:008540]; mean human age [BCIO:015177]; BCI attribute [BCIO:050315]; retail facility [BCIO:026036]; behaviour change intervention source [BCIO:010000]; path or pavement [BCIO:026048]; doctor-led primary care facility [BCIO:026016]; care home facility [BCIO:026017]; male biological sex [BCIO:015107]; ingestion mode of delivery [BCIO:011035]; wearable ingestion mode of delivery [BCIO:011046]; study recruitment setting [BCIO:014000]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; dentist facility [BCIO:026021]; regular intervention schedule [BCIO:008535]; evaluation finding [BCIO:035000]; educational facility [BCIO:026022]; inhalation mode of delivery [BCIO:011041]; ambulance [BCIO:026045]; individual human behaviour [BCIO:036000]; office facility [BCIO:026037]; medication use status [BCIO:015490]; female biological sex [BCIO:015106]; psychiatric facility [BCIO:026051]; community healthcare facility [BCIO:026019]; intervention effect estimate [BCIO:017000]; criminal justice facility [BCIO:026038]; behaviour change intervention mode of delivery [BCIO:011000]; community outpatient clinic facility [BCIO:026020]; experience-related behaviour [BCIO:050443]; intervention evaluation finding [BCIO:023000]; military facility [BCIO:026040]; public transportation [BCIO:026042]; transportation [BCIO:026041]; human age [BCIO:015015]; BCI schedule of delivery [BCIO:008500]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; individual human behaviour pattern [BCIO:036100]; biological sex [BCIO:015105]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,7 +548,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,7 +575,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -636,7 +634,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -664,7 +661,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -692,7 +688,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -720,7 +715,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -748,7 +742,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -776,7 +769,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -804,7 +796,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -832,7 +823,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -860,7 +850,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -888,7 +877,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -916,7 +904,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -944,7 +931,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -972,7 +958,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1000,7 +985,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1028,7 +1012,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1056,7 +1039,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1084,7 +1066,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>intervention setting [BCIO:014000]; factory facility [BCIO:026039]; mobile intervention venue [BCIO:026044]; belief about quality of life [BCIO:050324]; associative learning [BCIO:006119]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; personal attribute [BCIO:050300]; private transportation [BCIO:026043]; water [BCIO:026047]; irregular intervention schedule [BCIO:008540]; mean human age [BCIO:015177]; BCI attribute [BCIO:050315]; retail facility [BCIO:026036]; behaviour change intervention source [BCIO:010000]; path or pavement [BCIO:026048]; doctor-led primary care facility [BCIO:026016]; care home facility [BCIO:026017]; male biological sex [BCIO:015107]; ingestion mode of delivery [BCIO:011035]; wearable ingestion mode of delivery [BCIO:011046]; study recruitment setting [BCIO:014000]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; dentist facility [BCIO:026021]; regular intervention schedule [BCIO:008535]; evaluation finding [BCIO:035000]; educational facility [BCIO:026022]; inhalation mode of delivery [BCIO:011041]; ambulance [BCIO:026045]; individual human behaviour [BCIO:036000]; office facility [BCIO:026037]; medication use status [BCIO:015490]; female biological sex [BCIO:015106]; psychiatric facility [BCIO:026051]; community healthcare facility [BCIO:026019]; intervention effect estimate [BCIO:017000]; criminal justice facility [BCIO:026038]; behaviour change intervention mode of delivery [BCIO:011000]; community outpatient clinic facility [BCIO:026020]; experience-related behaviour [BCIO:050443]; intervention evaluation finding [BCIO:023000]; military facility [BCIO:026040]; public transportation [BCIO:026042]; transportation [BCIO:026041]; human age [BCIO:015015]; BCI schedule of delivery [BCIO:008500]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; injection mode of delivery [BCIO:011042]; outdoor environment [BCIO:026046]; individual human behaviour pattern [BCIO:036100]; biological sex [BCIO:015105]</t>
+          <t>position-related behaviour [BCIO:050440]; intervention setting [BCIO:014000]; factory facility [BCIO:026039]; mobile intervention venue [BCIO:026044]; belief about quality of life [BCIO:050324]; associative learning [BCIO:006119]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; personal attribute [BCIO:050300]; private transportation [BCIO:026043]; water [BCIO:026047]; irregular intervention schedule [BCIO:008540]; mean human age [BCIO:015177]; BCI attribute [BCIO:050315]; retail facility [BCIO:026036]; behaviour change intervention source [BCIO:010000]; path or pavement [BCIO:026048]; doctor-led primary care facility [BCIO:026016]; care home facility [BCIO:026017]; male biological sex [BCIO:015107]; ingestion mode of delivery [BCIO:011035]; wearable ingestion mode of delivery [BCIO:011046]; study recruitment setting [BCIO:014000]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; dentist facility [BCIO:026021]; regular intervention schedule [BCIO:008535]; evaluation finding [BCIO:035000]; educational facility [BCIO:026022]; inhalation mode of delivery [BCIO:011041]; ambulance [BCIO:026045]; individual human behaviour [BCIO:036000]; office facility [BCIO:026037]; medication use status [BCIO:015490]; female biological sex [BCIO:015106]; psychiatric facility [BCIO:026051]; community healthcare facility [BCIO:026019]; intervention effect estimate [BCIO:017000]; criminal justice facility [BCIO:026038]; community outpatient clinic facility [BCIO:026020]; experience-related behaviour [BCIO:050443]; intervention evaluation finding [BCIO:023000]; military facility [BCIO:026040]; public transportation [BCIO:026042]; transportation [BCIO:026041]; human age [BCIO:015015]; BCI schedule of delivery [BCIO:008500]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; injection mode of delivery [BCIO:011042]; behaviour change intervention mode of delivery [BCIO:011000]; individual human behaviour pattern [BCIO:036100]; outdoor environment [BCIO:026046]; biological sex [BCIO:015105]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -575,6 +576,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +636,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -661,6 +664,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -688,6 +692,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -715,6 +720,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,6 +748,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -769,6 +776,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,6 +804,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -823,6 +832,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -850,6 +860,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -877,6 +888,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -904,6 +916,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -931,6 +944,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -958,6 +972,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -985,6 +1000,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1012,6 +1028,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1039,6 +1056,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1066,6 +1084,35 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ro.owl</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>precedes [BFO:0000063]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>information content entity [IAO:0000030]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,12 +1005,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COB</t>
+          <t>SEPIO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/cob.owl</t>
+          <t>http://purl.obolibrary.org/obo/sepio.owl</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>planned process [COB:0000082]</t>
+          <t>research study [SEPIO:0000125]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1033,12 +1033,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SEPIO</t>
+          <t>PATO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/sepio.owl</t>
+          <t>http://purl.obolibrary.org/obo/pato.owl</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>research study [SEPIO:0000125]</t>
+          <t>force [PATO:0001035]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1061,12 +1061,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PATO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/pato.owl</t>
+          <t>http://purl.obolibrary.org/obo/ro.owl</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>force [PATO:0001035]</t>
+          <t>precedes [BFO:0000063]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1085,34 +1085,6 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ro.owl</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>precedes [BFO:0000063]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -740,7 +740,8 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>inclusion criterion [OBI:0500027]; eligibility criterion [OBI:0500026]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028]</t>
+          <t>inclusion criterion [OBI:0500027]; eligibility criterion [OBI:0500026]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028];
+planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; plan specification [IAO:0000104]; citation [IAO:0000301]; information content entity [IAO:0000030]; data item [IAO:0000027]</t>
+          <t>measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; plan specification [IAO:0000104]; citation [IAO:0000301]; information content entity [IAO:0000030]; data item [IAO:0000027]; is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>precedes [BFO:0000063]</t>
+          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; plan specification [IAO:0000104]; citation [IAO:0000301]; information content entity [IAO:0000030]; data item [IAO:0000027]; is about [IAO:0000136]</t>
+          <t>measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; plan specification [IAO:0000104]; citation [IAO:0000301]; information content entity [IAO:0000030]; data item [IAO:0000027]; is about [IAO:0000136];  measurement unit label [IAO:0000003]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ulotaront [CHEBI:228346]; psychotropic drug [CHEBI:35471]; tranquilizing drug [CHEBI:35473]; lipoprotein cholesterol [CHEBI:50404]; very-low-density lipoprotein cholesterol [CHEBI:47773]; ractopamine [CHEBI:82644]; low-density lipoprotein cholesterol [CHEBI:47774]; high-density lipoprotein cholesterol [CHEBI:47775]; diastereoisomeric mixture [CHEBI:60915]; thienopyran [CHEBI:48910]</t>
+          <t>ulotaront [CHEBI:228346]; psychotropic drug [CHEBI:35471]; tranquilizing drug [CHEBI:35473]; lipoprotein cholesterol [CHEBI:50404]; very-low-density lipoprotein cholesterol [CHEBI:47773]; ractopamine [CHEBI:82644]; low-density lipoprotein cholesterol [CHEBI:47774]; high-density lipoprotein cholesterol [CHEBI:47775]; diastereoisomeric mixture [CHEBI:60915]; thienopyran [CHEBI:48910]; pharmacological role [CHEBI:52210]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>position-related behaviour [BCIO:050440]; intervention setting [BCIO:014000]; factory facility [BCIO:026039]; mobile intervention venue [BCIO:026044]; belief about quality of life [BCIO:050324]; associative learning [BCIO:006119]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; personal attribute [BCIO:050300]; private transportation [BCIO:026043]; water [BCIO:026047]; irregular intervention schedule [BCIO:008540]; mean human age [BCIO:015177]; BCI attribute [BCIO:050315]; retail facility [BCIO:026036]; behaviour change intervention source [BCIO:010000]; path or pavement [BCIO:026048]; doctor-led primary care facility [BCIO:026016]; care home facility [BCIO:026017]; male biological sex [BCIO:015107]; ingestion mode of delivery [BCIO:011035]; wearable ingestion mode of delivery [BCIO:011046]; study recruitment setting [BCIO:014000]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; dentist facility [BCIO:026021]; regular intervention schedule [BCIO:008535]; evaluation finding [BCIO:035000]; educational facility [BCIO:026022]; inhalation mode of delivery [BCIO:011041]; ambulance [BCIO:026045]; individual human behaviour [BCIO:036000]; office facility [BCIO:026037]; medication use status [BCIO:015490]; female biological sex [BCIO:015106]; psychiatric facility [BCIO:026051]; community healthcare facility [BCIO:026019]; intervention effect estimate [BCIO:017000]; criminal justice facility [BCIO:026038]; community outpatient clinic facility [BCIO:026020]; experience-related behaviour [BCIO:050443]; intervention evaluation finding [BCIO:023000]; military facility [BCIO:026040]; public transportation [BCIO:026042]; transportation [BCIO:026041]; human age [BCIO:015015]; BCI schedule of delivery [BCIO:008500]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; injection mode of delivery [BCIO:011042]; behaviour change intervention mode of delivery [BCIO:011000]; individual human behaviour pattern [BCIO:036100]; outdoor environment [BCIO:026046]; biological sex [BCIO:015105]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]</t>
+          <t>biological sex population statistic [BCIO:015249]; position-related behaviour [BCIO:050440]; intervention setting [BCIO:014000]; factory facility [BCIO:026039]; mobile intervention venue [BCIO:026044]; belief about quality of life [BCIO:050324]; associative learning [BCIO:006119]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; personal attribute [BCIO:050300]; private transportation [BCIO:026043]; water [BCIO:026047]; irregular intervention schedule [BCIO:008540]; mean human age [BCIO:015177]; BCI attribute [BCIO:050315]; retail facility [BCIO:026036]; behaviour change intervention source [BCIO:010000]; path or pavement [BCIO:026048]; doctor-led primary care facility [BCIO:026016]; care home facility [BCIO:026017]; male biological sex [BCIO:015107]; ingestion mode of delivery [BCIO:011035]; wearable ingestion mode of delivery [BCIO:011046]; study recruitment setting [BCIO:014000]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; dentist facility [BCIO:026021]; regular intervention schedule [BCIO:008535]; evaluation finding [BCIO:035000]; educational facility [BCIO:026022]; inhalation mode of delivery [BCIO:011041]; ambulance [BCIO:026045]; individual human behaviour [BCIO:036000]; office facility [BCIO:026037]; medication use status [BCIO:015490]; female biological sex [BCIO:015106]; psychiatric facility [BCIO:026051]; community healthcare facility [BCIO:026019]; intervention effect estimate [BCIO:017000]; criminal justice facility [BCIO:026038]; community outpatient clinic facility [BCIO:026020]; experience-related behaviour [BCIO:050443]; intervention evaluation finding [BCIO:023000]; military facility [BCIO:026040]; public transportation [BCIO:026042]; transportation [BCIO:026041]; human age [BCIO:015015]; BCI schedule of delivery [BCIO:008500]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; injection mode of delivery [BCIO:011042]; behaviour change intervention mode of delivery [BCIO:011000]; individual human behaviour pattern [BCIO:036100]; outdoor environment [BCIO:026046]; biological sex [BCIO:015105]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micas\OneDrive\Documentos\GitHub\mental-health-ontology\UpperLevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A615A000-2FA2-43A9-B1BD-5F4EC252AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DAD757-3EA4-4E71-89D0-80E17B9450A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,10 +148,6 @@
     <t>http://purl.obolibrary.org/obo/obi.owl</t>
   </si>
   <si>
-    <t>inclusion criterion [OBI:0500027]; eligibility criterion [OBI:0500026]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028];
-planned process [OBI:0000011]</t>
-  </si>
-  <si>
     <t>OGMS</t>
   </si>
   <si>
@@ -230,9 +226,6 @@
     <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
   </si>
   <si>
-    <t>generically dependent continuant [BFO:0000031]; temporal region [BFO:0000008]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]; specifically dependent continuant [BFO:0000020]; function [BFO:0000034]</t>
-  </si>
-  <si>
     <t>SEPIO</t>
   </si>
   <si>
@@ -260,7 +253,13 @@
     <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
   </si>
   <si>
-    <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; position-related behaviour [BCIO:050440]; intervention setting [BCIO:014000]; factory facility [BCIO:026039]; mobile intervention venue [BCIO:026044]; belief about quality of life [BCIO:050324]; associative learning [BCIO:006119]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; personal attribute [BCIO:050300]; private transportation [BCIO:026043]; water [BCIO:026047]; irregular intervention schedule [BCIO:008540]; mean human age [BCIO:015177]; BCI attribute [BCIO:050315]; retail facility [BCIO:026036]; behaviour change intervention source [BCIO:010000]; path or pavement [BCIO:026048]; doctor-led primary care facility [BCIO:026016]; care home facility [BCIO:026017]; male biological sex [BCIO:015107]; ingestion mode of delivery [BCIO:011035]; wearable ingestion mode of delivery [BCIO:011046]; study recruitment setting [BCIO:014000]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; dentist facility [BCIO:026021]; regular intervention schedule [BCIO:008535]; evaluation finding [BCIO:035000]; educational facility [BCIO:026022]; inhalation mode of delivery [BCIO:011041]; ambulance [BCIO:026045]; individual human behaviour [BCIO:036000]; office facility [BCIO:026037]; medication use status [BCIO:015490]; female biological sex [BCIO:015106]; psychiatric facility [BCIO:026051]; community healthcare facility [BCIO:026019]; intervention effect estimate [BCIO:017000]; criminal justice facility [BCIO:026038]; community outpatient clinic facility [BCIO:026020]; experience-related behaviour [BCIO:050443]; intervention evaluation finding [BCIO:023000]; military facility [BCIO:026040]; public transportation [BCIO:026042]; transportation [BCIO:026041]; human age [BCIO:015015]; BCI schedule of delivery [BCIO:008500]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; injection mode of delivery [BCIO:011042]; behaviour change intervention mode of delivery [BCIO:011000]; individual human behaviour pattern [BCIO:036100]; outdoor environment [BCIO:026046]; biological sex [BCIO:015105]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; behavioural attribute [BCIO:050435]</t>
+    <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; position-related behaviour [BCIO:050440]; intervention setting [BCIO:014000]; factory facility [BCIO:026039]; mobile intervention venue [BCIO:026044]; belief about quality of life [BCIO:050324]; associative learning [BCIO:006119]; somatic mode of delivery [BCIO:011034]; transdermal mode of delivery [BCIO:011036]; personal attribute [BCIO:050300]; private transportation [BCIO:026043]; water [BCIO:026047]; irregular intervention schedule [BCIO:008540]; mean human age [BCIO:015177]; BCI attribute [BCIO:050315]; retail facility [BCIO:026036]; behaviour change intervention source [BCIO:010000]; path or pavement [BCIO:026048]; doctor-led primary care facility [BCIO:026016]; care home facility [BCIO:026017]; male biological sex [BCIO:015107]; ingestion mode of delivery [BCIO:011035]; wearable ingestion mode of delivery [BCIO:011046]; study recruitment setting [BCIO:014000]; alimentary mode of delivery [BCIO:011037]; buccal mode of delivery [BCIO:011040]; dentist facility [BCIO:026021]; regular intervention schedule [BCIO:008535]; evaluation finding [BCIO:035000]; educational facility [BCIO:026022]; inhalation mode of delivery [BCIO:011041]; ambulance [BCIO:026045]; individual human behaviour [BCIO:036000]; office facility [BCIO:026037]; medication use status [BCIO:015490]; female biological sex [BCIO:015106]; psychiatric facility [BCIO:026051]; community healthcare facility [BCIO:026019]; intervention effect estimate [BCIO:017000]; criminal justice facility [BCIO:026038]; community outpatient clinic facility [BCIO:026020]; experience-related behaviour [BCIO:050443]; intervention evaluation finding [BCIO:023000]; military facility [BCIO:026040]; public transportation [BCIO:026042]; transportation [BCIO:026041]; human age [BCIO:015015]; BCI schedule of delivery [BCIO:008500]; country of intervention [BCIO:026001]; community facility [BCIO:026029]; injection mode of delivery [BCIO:011042]; behaviour change intervention mode of delivery [BCIO:011000]; individual human behaviour pattern [BCIO:036100]; outdoor environment [BCIO:026046]; biological sex [BCIO:015105]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; behavioural attribute [BCIO:050435]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]</t>
+  </si>
+  <si>
+    <t>inclusion criterion [OBI:0500027]; eligibility criterion [OBI:0500026]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028]; planned process [OBI:0000011]; plan [OBI:0000260]</t>
+  </si>
+  <si>
+    <t>generically dependent continuant [BFO:0000031]; temporal region [BFO:0000008]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]; specifically dependent continuant [BFO:0000020]; function [BFO:0000034]; history [BFO:0000182]; object aggregate [BFO:0000027]; role [BFO:0000023]</t>
   </si>
 </sst>
 </file>
@@ -608,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -665,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -807,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -815,16 +814,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -832,16 +831,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -849,16 +848,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -866,16 +865,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -883,16 +882,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -900,16 +899,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -917,16 +916,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -934,16 +933,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -951,16 +950,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -968,16 +967,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -985,16 +984,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1002,16 +1001,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micas\OneDrive\Documentos\GitHub\mental-health-ontology\UpperLevel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DAD757-3EA4-4E71-89D0-80E17B9450A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C2B28-EF30-488E-99F2-5CCA8C880A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
     <t>inclusion criterion [OBI:0500027]; eligibility criterion [OBI:0500026]; quantitative confidence value [OBI:0000071]; mean calculation [OBI:0200079]; data transformation [OBI:0200000]; exclusion criterion [OBI:0500028]; planned process [OBI:0000011]; plan [OBI:0000260]</t>
   </si>
   <si>
-    <t>generically dependent continuant [BFO:0000031]; temporal region [BFO:0000008]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]; specifically dependent continuant [BFO:0000020]; function [BFO:0000034]; history [BFO:0000182]; object aggregate [BFO:0000027]; role [BFO:0000023]</t>
+    <t>generically dependent continuant [BFO:0000031]; temporal region [BFO:0000008]; process [BFO:0000015]; material entity [BFO:0000040]; immaterial entity [BFO:0000141]; site [BFO:0000029]; fiat object part [BFO:0000024]; specifically dependent continuant [BFO:0000020]; function [BFO:0000034]; history [BFO:0000182]; object aggregate [BFO:0000027]; role [BFO:0000023]; one-dimensional temporal region [BFO:0000038]</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,17 +525,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEBI</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
+          <t>http://purl.obolibrary.org/obo/cmo.owl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>central nervous system drug [CHEBI:35470]</t>
+          <t>clinical measurement [CMO:0000000]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>heart electrical conduction measurement [CMO:0000230]; QTC interval [CMO:0000269]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,39 +552,44 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>EFO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/cmo.owl</t>
+          <t>http://www.ebi.ac.uk/efo/efo.owl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>clinical measurement [CMO:0000000]</t>
+          <t>information content entity [IAO:0000030]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>heart electrical conduction measurement [CMO:0000230]; QTC interval [CMO:0000269]</t>
+          <t>hormone measurement [EFO:0004730]; prolactin measurement [EFO:0007003]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>all</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>"EFO: http://www.ebi.ac.uk/efo/EFO_"</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EFO</t>
+          <t>IAO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.ebi.ac.uk/efo/efo.owl</t>
+          <t>http://purl.obolibrary.org/obo/iao.owl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -589,34 +599,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>hormone measurement [EFO:0004730]; prolactin measurement [EFO:0007003]</t>
+          <t xml:space="preserve">measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; measurement unit label [IAO:0000003]; plan specification [IAO:0000104]; information content entity [IAO:0000030]; data item [IAO:0000027]; is about [IAO:0000136]; directive information entity [IAO:0000033]; textual entity [IAO:00000300];
+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>all</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>"EFO: http://www.ebi.ac.uk/efo/EFO_"</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENVO</t>
+          <t>MF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/envo.owl</t>
+          <t>http://purl.obolibrary.org/obo/mf.owl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bodily disposition [MF:0000032]; mental process [MF:0000020]; human being [MF:0000016]; mental disposition [MF:0000033]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,23 +639,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IAO</t>
+          <t>OBCS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/iao.owl</t>
+          <t>http://purl.obolibrary.org/obo/obcs.owl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>information content entity [IAO:0000030]</t>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">measurement datum [IAO:0000109]; measurement data item [IAO:0000109]; measurement unit label [IAO:0000003]; plan specification [IAO:0000104]; information content entity [IAO:0000030]; data item [IAO:0000027]; is about [IAO:0000136]; directive information entity [IAO:0000033]; textual entity [IAO:00000300];
-</t>
+          <t>standard deviation [OBCS:0000077]; measurement scale [OBCS:0000011]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -656,12 +666,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>OBI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/mf.owl</t>
+          <t>http://purl.obolibrary.org/obo/obi.owl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -671,7 +681,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bodily disposition [MF:0000032]; mental process [MF:0000020]; human being [MF:0000016]; mental disposition [MF:0000033]</t>
+          <t>quantitative confidence value [OBI:0000071]; planned process [OBI:0000011]; plan [OBI:0000260]; average value [OBI:0000679]; study design [OBI:0500000]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -683,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OBCS</t>
+          <t>OGMS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/obcs.owl</t>
+          <t>http://purl.obolibrary.org/obo/ogms.owl</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -698,7 +708,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>standard deviation [OBCS:0000077]; measurement scale [OBCS:0000011]</t>
+          <t>bodily process [OGMS:0000060]; extended organism [OGMS:0000087]; pathological bodily process [OGMS:0000061]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -710,12 +720,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>STATO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/obi.owl</t>
+          <t>http://purl.obolibrary.org/obo/STATO.owl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -725,7 +735,8 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>quantitative confidence value [OBI:0000071]; planned process [OBI:0000011]; plan [OBI:0000260]; average value [OBI:0000679]; study design [OBI:0500000]</t>
+          <t xml:space="preserve">minimum observed value [STATO:0000150]; maximum observed value [STATO:0000151]; statistic [STATO:0000039]; estimate [STATO:0000471]; point estimate [STATO:0000599]; standard error of estimate [STATO:0000562];
+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -737,12 +748,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OGMS</t>
+          <t>BFO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ogms.owl</t>
+          <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -752,7 +763,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>bodily process [OGMS:0000060]; extended organism [OGMS:0000087]; pathological bodily process [OGMS:0000061]</t>
+          <t>process [BFO:0000015]; history [BFO:0000182]; object aggregate [BFO:0000027]; role [BFO:0000023]; one-dimensional temporal region [BFO:0000038]; disposition [BFO:0000016]; history [BFO:0000182]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -764,17 +775,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OMIABIS</t>
+          <t>SEPIO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/omiabis.owl</t>
+          <t>http://purl.obolibrary.org/obo/sepio.owl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>research study [SEPIO:0000125]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -786,17 +802,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OMRSE</t>
+          <t>PATO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/omrse.owl</t>
+          <t>http://purl.obolibrary.org/obo/pato.owl</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>force [PATO:0001035]; weight [PATO:0000128]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -808,12 +829,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OPMI</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/opmi.owl</t>
+          <t>http://purl.obolibrary.org/obo/ro.owl</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -821,209 +842,12 @@
           <t>entity [BFO:0000001]</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PDRO</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/pdro.owl</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/pr.owl</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>STATO</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/STATO.owl</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">minimum observed value [STATO:0000150]; maximum observed value [STATO:0000151]; statistic [STATO:0000039]; estimate [STATO:0000471]; point estimate [STATO:0000599]; standard error of estimate [STATO:0000562];
-</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GAZ</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/gaz.owl</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>BFO</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>process [BFO:0000015]; history [BFO:0000182]; object aggregate [BFO:0000027]; role [BFO:0000023]; one-dimensional temporal region [BFO:0000038]; disposition [BFO:0000016]; history [BFO:0000182]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SEPIO</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/sepio.owl</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>research study [SEPIO:0000125]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>PATO</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/pato.owl</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>force [PATO:0001035]; weight [PATO:0000128]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ro.owl</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>all</t>
         </is>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micas\OneDrive\Documentos\GitHub\mental-health-ontology\UpperLevel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C50F09-5D01-4462-B390-19D334F737A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">Ontology ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+  <si>
+    <t>Ontology ID</t>
   </si>
   <si>
     <t>PURL</t>
@@ -43,16 +46,16 @@
     <t>http://addictovocab.org/addicto.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">entity [BFO:0000001]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interventional study design [ADDICTO:0001267]; relapsed to a disorder [ADDICTO:0001308]</t>
+    <t>entity [BFO:0000001]</t>
+  </si>
+  <si>
+    <t>interventional study design [ADDICTO:0001267]; relapsed to a disorder [ADDICTO:0001308]</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
-    <t xml:space="preserve">"ADDICTO: http://addictovocab.org/ADDICTO_"</t>
+    <t>"ADDICTO: http://addictovocab.org/ADDICTO_"</t>
   </si>
   <si>
     <t>BCIO</t>
@@ -61,10 +64,7 @@
     <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
+    <t>"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
   </si>
   <si>
     <t>CMO</t>
@@ -73,10 +73,10 @@
     <t>http://purl.obolibrary.org/obo/cmo.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">clinical measurement [CMO:0000000]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart electrical conduction measurement [CMO:0000230]; QTC interval [CMO:0000269]</t>
+    <t>clinical measurement [CMO:0000000]</t>
+  </si>
+  <si>
+    <t>heart electrical conduction measurement [CMO:0000230]; QTC interval [CMO:0000269]</t>
   </si>
   <si>
     <t>EFO</t>
@@ -85,13 +85,13 @@
     <t>http://www.ebi.ac.uk/efo/efo.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">information content entity [IAO:0000030]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hormone measurement [EFO:0004730]; prolactin measurement [EFO:0007003]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"EFO: http://www.ebi.ac.uk/efo/EFO_"</t>
+    <t>information content entity [IAO:0000030]</t>
+  </si>
+  <si>
+    <t>hormone measurement [EFO:0004730]; prolactin measurement [EFO:0007003]</t>
+  </si>
+  <si>
+    <t>"EFO: http://www.ebi.ac.uk/efo/EFO_"</t>
   </si>
   <si>
     <t>IAO</t>
@@ -110,7 +110,7 @@
     <t>http://purl.obolibrary.org/obo/mf.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">bodily disposition [MF:0000032]; mental process [MF:0000020]; human being [MF:0000016]; mental disposition [MF:0000033]</t>
+    <t>bodily disposition [MF:0000032]; mental process [MF:0000020]; human being [MF:0000016]; mental disposition [MF:0000033]</t>
   </si>
   <si>
     <t>OBCS</t>
@@ -119,7 +119,7 @@
     <t>http://purl.obolibrary.org/obo/obcs.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">standard deviation [OBCS:0000077]; measurement scale [OBCS:0000011]</t>
+    <t>standard deviation [OBCS:0000077]; measurement scale [OBCS:0000011]</t>
   </si>
   <si>
     <t>OBI</t>
@@ -128,7 +128,7 @@
     <t>http://purl.obolibrary.org/obo/obi.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">quantitative confidence value [OBI:0000071]; planned process [OBI:0000011]; plan [OBI:0000260]; average value [OBI:0000679]; study design [OBI:0500000]</t>
+    <t>quantitative confidence value [OBI:0000071]; planned process [OBI:0000011]; plan [OBI:0000260]; average value [OBI:0000679]; study design [OBI:0500000]</t>
   </si>
   <si>
     <t>OGMS</t>
@@ -137,7 +137,7 @@
     <t>http://purl.obolibrary.org/obo/ogms.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">bodily process [OGMS:0000060]; extended organism [OGMS:0000087]; pathological bodily process [OGMS:0000061]</t>
+    <t>bodily process [OGMS:0000060]; extended organism [OGMS:0000087]; pathological bodily process [OGMS:0000061]</t>
   </si>
   <si>
     <t>STATO</t>
@@ -156,7 +156,7 @@
     <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">process [BFO:0000015]; history [BFO:0000182]; object aggregate [BFO:0000027]; role [BFO:0000023]; one-dimensional temporal region [BFO:0000038]; disposition [BFO:0000016]; history [BFO:0000182]</t>
+    <t>process [BFO:0000015]; history [BFO:0000182]; object aggregate [BFO:0000027]; role [BFO:0000023]; one-dimensional temporal region [BFO:0000038]; disposition [BFO:0000016]; history [BFO:0000182]</t>
   </si>
   <si>
     <t>SEPIO</t>
@@ -165,7 +165,7 @@
     <t>http://purl.obolibrary.org/obo/sepio.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">research study [SEPIO:0000125]</t>
+    <t>research study [SEPIO:0000125]</t>
   </si>
   <si>
     <t>PATO</t>
@@ -174,7 +174,7 @@
     <t>http://purl.obolibrary.org/obo/pato.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">force [PATO:0001035]; weight [PATO:0000128]</t>
+    <t>force [PATO:0001035]; weight [PATO:0000128]</t>
   </si>
   <si>
     <t>RO</t>
@@ -183,23 +183,27 @@
     <t>http://purl.obolibrary.org/obo/ro.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
+    <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
+  </si>
+  <si>
+    <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]; population statistic [BCIO:050978]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.000000"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,20 +216,20 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -238,295 +242,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,26 +455,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col bestFit="1" min="4" max="4" width="255.7109375"/>
+    <col min="4" max="4" width="255.73046875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -790,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -801,226 +523,224 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" ht="42.75">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,6 +853,34 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OBA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/oba.owl</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>experimental factor [EFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>prolactin amount [OBA:1000952]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,10 +17,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -28,6 +27,12 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,14 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -130,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,71 +180,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -245,7 +194,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -268,7 +217,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -342,24 +291,13 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -381,11 +319,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -400,33 +336,30 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="16.5" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ontology ID</t>
@@ -513,7 +446,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]</t>
+          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]; population statistic [BCIO:050978]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -706,7 +639,7 @@
           <t>http://purl.obolibrary.org/obo/ogms.owl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/OGMS/ogms/ec428081c94818e18c906551563b81a1503a1332/ogms.owl</t>
         </is>
@@ -891,6 +824,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,9 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -27,12 +28,6 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,16 +50,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -137,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,13 +173,71 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -194,7 +245,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -217,7 +268,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -291,13 +342,24 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -319,9 +381,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -336,30 +400,33 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" s="2">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ontology ID</t>
@@ -639,7 +706,7 @@
           <t>http://purl.obolibrary.org/obo/ogms.owl</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/OGMS/ogms/ec428081c94818e18c906551563b81a1503a1332/ogms.owl</t>
         </is>
@@ -809,7 +876,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>experimental factor [EFO:0000001]</t>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -824,11 +891,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -854,7 +854,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]</t>
+          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]; has participant [RO:0000057]; has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -854,7 +854,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]; has participant [RO:0000057]; has participant [RO:0000057]</t>
+          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]; has participant [RO:0000057]; has input [RO:0002233]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]; population statistic [BCIO:050978]</t>
+          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015331]; proportion female biological sex population statistic [BCIO:015328]; population statistic [BCIO:050978]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015331]; proportion female biological sex population statistic [BCIO:015328]; population statistic [BCIO:050978]</t>
+          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015248]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015326]; female gender population statistic [BCIO:015329]; gender identity population statistic [BCIO:015359]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015331]; proportion female biological sex population statistic [BCIO:015328]; population statistic [BCIO:050978]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015248]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015326]; female gender population statistic [BCIO:015329]; gender identity population statistic [BCIO:015359]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015331]; proportion female biological sex population statistic [BCIO:015328]; population statistic [BCIO:050978]</t>
+          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]; population statistic [BCIO:050978]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -881,7 +881,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>prolactin amount [OBA:1000952]</t>
+          <t>prolactin level [OBA:1000952]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]; population statistic [BCIO:050978]</t>
+          <t>human age population statistic [BCIO:015415]; biological sex population statistic [BCIO:015249]; human population [BCIO:041000]; participant engagement with intervention [BCIO:050916]; intervention delivery [BCIO:045000]; intervention style of delivery [BCIO:044005]; personal history part [BCIO:050487]; intervention population [BCIO:015095]; personal history [BCIO:015161]; health status attribute [BCIO:015092]; communication style [BCIO:044004]; individual human activity [BCIO:040000]; intervention [BCIO:037000]; intervention content [BCIO:046000]; intervention delivery [BCIO:045000]; intervention outcome [BCIO:039000]; health status attribute [BCIO:015092]; female biological sex population statistic [BCIO:015327]; female gender population statistic [BCIO:015330]; gender identity population statistic [BCIO:015360]; mean human age population statistic [BCIO:015416]; proportion female gender population statistic [BCIO:015332]; proportion female biological sex population statistic [BCIO:015329]; population statistic [BCIO:050978]; number of people in a population [BCIO:050976]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/UpperLevel/GMHO_External_Imports.xlsx
+++ b/UpperLevel/GMHO_External_Imports.xlsx
@@ -854,7 +854,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]; has participant [RO:0000057]; has input [RO:0002233]</t>
+          <t>precedes [BFO:0000063]; part of [BFO:0000050]; has part [BFO:0000051]; realizes [BFO:0000055]; has occurrent part [BFO:0000117]; has participant [RO:0000057]; has input [RO:0002233]; causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
